--- a/数据整理/stocks/A股/创业板/300791-仙乐健康.xlsx
+++ b/数据整理/stocks/A股/创业板/300791-仙乐健康.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>34.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>89.85</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.98</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0242</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004995</t>
+          <t>161040</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发品牌消费股票A</t>
+          <t>富国创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.84</t>
+          <t>33.86</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>63.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6806</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010245</t>
+          <t>004995</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发品牌消费股票C</t>
+          <t>广发品牌消费股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>91.84</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.07</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2263</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>161040</t>
+          <t>010245</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富国创业板两年定期开放混合</t>
+          <t>广发品牌消费股票C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>63.23</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -609,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,15 +680,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -650,26 +710,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000294</t>
+          <t>161040</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华安生态优先混合</t>
+          <t>富国创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>88.70</t>
+          <t>33.25</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>76.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4564</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -678,26 +748,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>100039</t>
+          <t>000294</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国通胀通缩主题混合</t>
+          <t>华安生态优先混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>83.17</t>
+          <t>27.26</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9786</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -706,26 +786,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005589</t>
+          <t>009914</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长信企业精选两年定期开放灵活配置混合</t>
+          <t>富国成长动力混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>45.49</t>
+          <t>19.20</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>76.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6125</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -734,26 +824,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>310388</t>
+          <t>005433</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>申万菱信消费增长混合</t>
+          <t>申万菱信医药先锋股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>91.19</t>
+          <t>6.27</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.62</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2815</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -762,26 +862,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009914</t>
+          <t>310388</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国成长动力混合</t>
+          <t>申万菱信消费增长混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>76.00</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2529</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -790,26 +900,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006240</t>
+          <t>000940</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中融医疗健康精选混合A</t>
+          <t>富国中小盘精选混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>89.11</t>
+          <t>9.48</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.54</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>82.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2342</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -818,26 +938,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006241</t>
+          <t>005589</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中融医疗健康精选混合C</t>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>89.11</t>
+          <t>6.96</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.54</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
+          <t>45.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1580</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -846,26 +976,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000940</t>
+          <t>100039</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>富国中小盘精选混合</t>
+          <t>富国通胀通缩主题混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>82.93</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
+          <t>83.17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1552</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010434</t>
+          <t>004995</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>红土创新医疗保健股票</t>
+          <t>广发品牌消费股票A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>81.44</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1293</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>161040</t>
+          <t>010245</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>富国创业板两年定期开放混合</t>
+          <t>广发品牌消费股票C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>76.09</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005433</t>
+          <t>006240</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>申万菱信医药先锋股票</t>
+          <t>中融医疗健康精选混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>88.29</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>004995</t>
+          <t>010434</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>广发品牌消费股票A</t>
+          <t>红土创新医疗保健股票</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>89.30</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
+          <t>81.44</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>010245</t>
+          <t>006241</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>广发品牌消费股票C</t>
+          <t>中融医疗健康精选混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>89.30</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300791-仙乐健康.xlsx
+++ b/数据整理/stocks/A股/创业板/300791-仙乐健康.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1201,4 +1202,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161040</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5601</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009914</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国成长动力混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5810</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300791-仙乐健康.xlsx
+++ b/数据整理/stocks/A股/创业板/300791-仙乐健康.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1334,4 +1335,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300791-仙乐健康.xlsx
+++ b/数据整理/stocks/A股/创业板/300791-仙乐健康.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1343,7 +1344,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1354,17 +1355,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1374,14 +1395,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.14</v>
+          <t>012071</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>38.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1189</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1390,14 +1433,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.29</v>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1406,13 +1471,287 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012072</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>38.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004456</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴银消费新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.95</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300791-仙乐健康.xlsx
+++ b/数据整理/stocks/A股/创业板/300791-仙乐健康.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1666,7 +1667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,17 +1678,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1697,14 +1718,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.4</v>
+          <t>000968</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2063</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1713,14 +1756,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.14</v>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>62.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1872</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1729,14 +1794,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.29</v>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>61.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1745,13 +1832,265 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>62.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002982</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>516560</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝养老ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>61.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.95</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300791-仙乐健康.xlsx
+++ b/数据整理/stocks/A股/创业板/300791-仙乐健康.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,209 +455,893 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000294</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华安生态优先混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>34.37</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.85</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.0242</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>161040</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国创业板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>33.86</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>63.23</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.6806</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004995</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发品牌消费股票A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.56</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.84</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2263</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.14</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010245</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发品牌消费股票C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.84</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0224</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.95</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000968</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2063</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>62.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1872</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>61.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>62.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002982</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>516560</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝养老ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>61.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012071</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>38.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1189</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012072</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>38.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004456</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴银消费新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161040</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5601</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009914</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国成长动力混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5810</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1207,259 +1891,127 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>000294</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安生态优先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0242</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>161040</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>富国创业板两年定期开放混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>40.21</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.27</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.5601</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009914</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国成长动力混合</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.14</t>
+          <t>33.86</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.32</t>
+          <t>63.23</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5810</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>012071</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中加喜利回报一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.33</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>38.07</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1189</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005775</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中加转型动力灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>75.59</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0945</t>
+          <t>0.6806</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1467,634 +2019,82 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009242</t>
+          <t>004995</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中加核心智造混合A</t>
+          <t>广发品牌消费股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>76.93</t>
+          <t>91.84</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0852</t>
+          <t>0.2263</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>012072</t>
+          <t>010245</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中加喜利回报一年持有期混合C</t>
+          <t>广发品牌消费股票C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>38.07</t>
+          <t>91.84</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0631</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005776</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中加转型动力灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>75.59</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0307</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009243</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中加核心智造混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>76.93</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0039</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004456</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>兴银消费新趋势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>89.62</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0027</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000968</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发中证养老产业指数A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>15.51</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2063</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005775</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中加转型动力灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>8.47</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>62.53</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1872</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009242</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中加核心智造混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>61.92</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0560</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005776</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中加转型动力灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>62.53</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0535</t>
+          <t>0.0224</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002982</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发中证养老产业指数C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0408</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>516560</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华宝养老ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>98.08</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0112</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009243</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中加核心智造混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>61.92</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0092</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.14</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>13</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.29</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.95</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300791-仙乐健康.xlsx
+++ b/数据整理/stocks/A股/创业板/300791-仙乐健康.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>2.14</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>4.29</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>13</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.95</v>
       </c>
     </row>
@@ -571,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -622,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000968</t>
+          <t>001487</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发中证养老产业指数A</t>
+          <t>宝盈优势产业灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15.51</t>
+          <t>10.62</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.50</t>
+          <t>94.48</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2063</t>
+          <t>0.2889</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -660,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005775</t>
+          <t>013895</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中加转型动力灵活配置混合A</t>
+          <t>宝盈成长精选混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.47</t>
+          <t>8.59</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>62.53</t>
+          <t>94.68</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1872</t>
+          <t>0.2328</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -698,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009242</t>
+          <t>012771</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中加核心智造混合A</t>
+          <t>宝盈优势产业灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>61.92</t>
+          <t>94.48</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0560</t>
+          <t>0.0868</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -736,150 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005776</t>
+          <t>013896</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中加转型动力灵活配置混合C</t>
+          <t>宝盈成长精选混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>62.53</t>
+          <t>94.68</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0535</t>
+          <t>0.0829</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002982</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发中证养老产业指数C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0408</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>516560</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华宝养老ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>98.08</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0112</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009243</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中加核心智造混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>61.92</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0092</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -944,36 +847,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>012071</t>
+          <t>000968</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中加喜利回报一年持有期混合A</t>
+          <t>广发中证养老产业指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>15.51</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>38.07</t>
+          <t>94.50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1189</t>
+          <t>0.2063</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -992,26 +895,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>8.47</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>75.59</t>
+          <t>62.53</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0945</t>
+          <t>0.1872</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1030,22 +933,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>76.93</t>
+          <t>61.92</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0852</t>
+          <t>0.0560</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1058,36 +961,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>012072</t>
+          <t>005776</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中加喜利回报一年持有期混合C</t>
+          <t>中加转型动力灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>38.07</t>
+          <t>62.53</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0631</t>
+          <t>0.0535</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1096,36 +999,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005776</t>
+          <t>002982</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中加转型动力灵活配置混合C</t>
+          <t>广发中证养老产业指数C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>75.59</t>
+          <t>94.50</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0307</t>
+          <t>0.0408</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1134,36 +1037,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009243</t>
+          <t>516560</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中加核心智造混合C</t>
+          <t>华宝养老ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>76.93</t>
+          <t>98.08</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0039</t>
+          <t>0.0112</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1172,36 +1075,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004456</t>
+          <t>009243</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>兴银消费新趋势灵活配置混合</t>
+          <t>中加核心智造混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.62</t>
+          <t>61.92</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0027</t>
+          <t>0.0092</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1210,6 +1113,328 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012071</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>38.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1189</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012072</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>38.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004456</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴银消费新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1341,7 +1566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1891,7 +2116,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
